--- a/data/trans_dic/P29_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,96; 43,86</t>
+          <t>21,04; 55,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,92; 50,31</t>
+          <t>22,3; 58,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,56; 50,32</t>
+          <t>16,53; 53,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 29,88</t>
+          <t>10,39; 42,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,49; 31,42</t>
+          <t>5,96; 27,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 29,22</t>
+          <t>8,36; 31,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 32,26</t>
+          <t>5,09; 26,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,13; 37,52</t>
+          <t>10,28; 33,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,34; 37,57</t>
+          <t>16,01; 36,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 39,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,1; 37,15</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 34,15</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,23; 55,24</t>
+          <t>17,22; 63,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,6; 43,92</t>
+          <t>12,72; 43,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,44; 47,73</t>
+          <t>10,55; 56,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 26,36</t>
+          <t>4,53; 29,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 31,28</t>
+          <t>10,95; 33,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 33,08</t>
+          <t>11,21; 34,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 37,98</t>
+          <t>10,16; 34,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 34,79</t>
+          <t>15,49; 43,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,7; 36,31</t>
+          <t>18,15; 47,26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 32,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 41,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 29,8</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,45; 51,21</t>
+          <t>27,53; 53,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,89; 40,6</t>
+          <t>23,22; 47,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 35,61</t>
+          <t>21,17; 46,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 22,89</t>
+          <t>15,83; 38,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,45; 26,59</t>
+          <t>7,63; 20,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 26,94</t>
+          <t>7,97; 21,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,06; 33,88</t>
+          <t>8,27; 21,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 31,2</t>
+          <t>10,71; 25,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 27,97</t>
+          <t>17,8; 31,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,96; 28,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 28,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 28,2</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 29,76</t>
+          <t>15,32; 35,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 35,16</t>
+          <t>13,14; 30,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 38,54</t>
+          <t>19,19; 39,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,41</t>
+          <t>11,67; 30,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,14; 30,5</t>
+          <t>7,11; 21,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 28,18</t>
+          <t>10,66; 25,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,43</t>
+          <t>12,5; 28,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,14; 30,7</t>
+          <t>9,23; 22,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 31,2</t>
+          <t>12,89; 24,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 25,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 30,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 24,14</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>23,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,37; 33,12</t>
+          <t>15,38; 36,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,76; 32,77</t>
+          <t>15,97; 36,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,4; 46,73</t>
+          <t>23,57; 47,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,39; 29,59</t>
+          <t>15,61; 38,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 26,84</t>
+          <t>10,84; 34,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 28,27</t>
+          <t>6,42; 27,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,48; 28,05</t>
+          <t>5,03; 24,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 26,74</t>
+          <t>17,63; 44,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,46; 34,73</t>
+          <t>16,01; 31,54</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 28,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 33,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,8; 37,31</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>27,76%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 32,48</t>
+          <t>4,97; 28,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,04; 43,18</t>
+          <t>14,36; 43,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,29; 48,75</t>
+          <t>15,09; 43,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,54; 30,74</t>
+          <t>12,94; 39,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,19; 49,16</t>
+          <t>5,57; 29,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 38,72</t>
+          <t>11,8; 42,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 28,37</t>
+          <t>10,7; 39,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,58; 44,8</t>
+          <t>13,88; 55,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,32; 39,76</t>
+          <t>8,53; 24,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 36,25</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 35,93</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18,21; 45,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,13; 33,9</t>
+          <t>24,81; 37,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,21; 34,06</t>
+          <t>23,63; 34,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,6; 36,82</t>
+          <t>24,63; 38,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,28</t>
+          <t>16,53; 27,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,32; 26,44</t>
+          <t>12,44; 19,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,0; 25,03</t>
+          <t>14,54; 22,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,68</t>
+          <t>13,67; 21,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,11; 28,74</t>
+          <t>18,14; 29,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,86; 29,71</t>
+          <t>19,04; 26,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 25,88</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 28,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 26,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39137</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42254</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45466</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34943</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19458</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21351</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16812</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30316</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58596</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63604</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62278</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65258</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21719; 57557</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23571; 61861</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21087; 68148</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14461; 59539</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7990; 36180</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10039; 37973</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6241; 32463</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14962; 49354</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37974; 86449</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42138; 89288</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37759; 92913</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38693; 97217</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62402</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38200</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39539</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32638</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32954</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26446</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24532</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43103</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>95355</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64646</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64071</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>75741</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29059; 107083</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18235; 62208</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16280; 86715</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10316; 66910</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18087; 55746</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14204; 43998</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12835; 43018</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25151; 69839</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>60588; 157772</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39560; 88587</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35953; 116916</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42070; 116244</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>65113</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46557</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45820</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47854</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35102</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29125</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28280</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41129</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>100215</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75682</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74100</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44619; 86504</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31198; 63446</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29145; 63425</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28537; 69204</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20156; 55319</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16680; 45228</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16579; 43252</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25676; 61432</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>75869; 132826</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54862; 99139</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53631; 97706</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>64633; 118440</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44817</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33395</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44546</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>39397</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28555</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33057</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34869</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32630</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73372</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>66452</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79415</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72026</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28608; 65669</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21187; 48854</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29976; 61553</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23153; 61218</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15530; 46439</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19816; 48187</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21549; 49606</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19637; 47506</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52209; 98580</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>48399; 87887</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59479; 99472</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>51150; 99247</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39292</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34115</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42615</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39815</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25111</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14133</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11715</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41374</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64403</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48248</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>54329</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>81189</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24207; 57749</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21093; 48272</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29041; 58042</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24147; 59258</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12594; 40248</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6022; 26186</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4661; 22540</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24161; 61430</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43802; 86309</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31949; 64702</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>37824; 73025</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57750; 108829</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15917</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>23212</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24785</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33839</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21364</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25704</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25832</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62008</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>37281</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>48917</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>50617</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>95847</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5428; 31380</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12544; 37715</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13604; 39447</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17830; 54533</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7666; 40308</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12409; 44292</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11835; 44079</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28805; 115635</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>21061; 59753</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>34624; 69772</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33256; 72120</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>62881; 155408</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>266678</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>217733</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>242771</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>228486</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>162545</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>149815</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>142039</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>250560</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>429223</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>367549</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>384810</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>479046</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>220202; 335328</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>180550; 264538</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>194343; 301807</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>171599; 280950</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>128752; 205423</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>122277; 188716</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>112800; 177497</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>200421; 321385</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>366198; 513276</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>312518; 415474</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>332915; 461792</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>402901; 565302</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>